--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>788879.977065812</v>
+        <v>784371.2413577868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30060817.87599994</v>
+        <v>30060817.87599993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7371539.748594784</v>
+        <v>7371539.748594782</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H11" t="n">
-        <v>119.1675583770505</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>79.94467627070023</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H12" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>110.2039010715561</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>56.09426553760599</v>
       </c>
       <c r="H13" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>153.0370636576713</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>274.71888335875</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.4421502356277</v>
       </c>
       <c r="T14" t="n">
-        <v>135.7293506595562</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>146.4828642491403</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H15" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.93693937418126</v>
+        <v>60.93693937418125</v>
       </c>
       <c r="T15" t="n">
         <v>136.2135410023534</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>143.7456753612161</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.843788712764102</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.0370636576712</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3344142389604</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.979539478532</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.44215023562772</v>
+        <v>58.44215023562771</v>
       </c>
       <c r="T17" t="n">
-        <v>88.80113741270144</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>366.5060225073273</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H18" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>118.8080533548509</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7109207868414</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.843788712764123</v>
+        <v>6.843788712764116</v>
       </c>
       <c r="S19" t="n">
         <v>153.0370636576713</v>
@@ -2058,7 +2058,7 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U19" t="n">
-        <v>153.9419744248954</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>394.5659591822062</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.44215023562774</v>
+        <v>58.44215023562771</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>290.7599524175275</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H21" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>113.7830890832634</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7109207868414</v>
@@ -2259,7 +2259,7 @@
         <v>134.5033723615851</v>
       </c>
       <c r="I22" t="n">
-        <v>72.20225288674683</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.843788712764116</v>
       </c>
       <c r="S22" t="n">
         <v>153.0370636576713</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>206.0375050323484</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294.8998399334192</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>315.1477295904207</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2496,7 +2496,7 @@
         <v>134.5033723615851</v>
       </c>
       <c r="I25" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>206.7213016981611</v>
       </c>
       <c r="V25" t="n">
-        <v>119.149294796853</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>198.651686414974</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>274.71888335875</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>124.6565770435738</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>56.40057520466429</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>70.53253341687716</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0945428230611</v>
+        <v>79.96720761971567</v>
       </c>
       <c r="U29" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>90.97775981125888</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I31" t="n">
         <v>72.20225288674683</v>
@@ -3009,13 +3009,13 @@
         <v>277.3344142389604</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>99.05923097205935</v>
       </c>
       <c r="W31" t="n">
-        <v>42.78703760245669</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>43.74203400812033</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>316.9065122847597</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I34" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>153.0370636576713</v>
       </c>
       <c r="T34" t="n">
-        <v>116.4626853779187</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>58.14028750785855</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.894391112503402</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>121.6987861118026</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.22234381359351</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>61.3207288985426</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H37" t="n">
         <v>134.5033723615851</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.66540959446651</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3520,7 +3520,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H38" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>58.44215023562772</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0945428230611</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>75.04446336083672</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>17.77488512134943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0370636576713</v>
+        <v>76.18643081377787</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344142389604</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>216.802141536728</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H41" t="n">
         <v>274.71888335875</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>52.98158414998277</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3836,7 +3836,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H42" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>100.3973836674675</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0370636576713</v>
@@ -3954,7 +3954,7 @@
         <v>237.1310885301926</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3344142389604</v>
+        <v>263.1338482986963</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.78734408316597</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>56.53371329329352</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.0594236856912</v>
       </c>
       <c r="H45" t="n">
-        <v>42.66474259349078</v>
+        <v>42.66474259349077</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>37.75526793945551</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>72.20225288674683</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0471630190668</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1012.878543724755</v>
+        <v>1570.574148472481</v>
       </c>
       <c r="C11" t="n">
-        <v>585.9778137380556</v>
+        <v>1570.574148472481</v>
       </c>
       <c r="D11" t="n">
-        <v>162.6851929230559</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="E11" t="n">
-        <v>162.6851929230559</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F11" t="n">
-        <v>162.6851929230559</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G11" t="n">
-        <v>162.6851929230559</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H11" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I11" t="n">
-        <v>83.28385069007342</v>
+        <v>83.2838506900739</v>
       </c>
       <c r="J11" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321599</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2746315182159</v>
+        <v>432.2746315182168</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0497753208666</v>
+        <v>702.0497753208676</v>
       </c>
       <c r="M11" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.386188667469</v>
+        <v>1318.38618866747</v>
       </c>
       <c r="O11" t="n">
-        <v>1609.900250660811</v>
+        <v>1609.900250660812</v>
       </c>
       <c r="P11" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R11" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S11" t="n">
-        <v>2056.663616770822</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T11" t="n">
-        <v>1844.446906848538</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U11" t="n">
-        <v>1844.446906848538</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="V11" t="n">
-        <v>1844.446906848538</v>
+        <v>1975.91141851759</v>
       </c>
       <c r="W11" t="n">
-        <v>1844.446906848538</v>
+        <v>1975.91141851759</v>
       </c>
       <c r="X11" t="n">
-        <v>1432.726908016286</v>
+        <v>1975.91141851759</v>
       </c>
       <c r="Y11" t="n">
-        <v>1432.726908016286</v>
+        <v>1570.574148472481</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H12" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I12" t="n">
-        <v>85.68024619823245</v>
+        <v>85.68024619823248</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8415942264657</v>
+        <v>163.8415942264658</v>
       </c>
       <c r="K12" t="n">
-        <v>310.1319463808642</v>
+        <v>310.1319463808643</v>
       </c>
       <c r="L12" t="n">
-        <v>514.3647911409279</v>
+        <v>514.364791140928</v>
       </c>
       <c r="M12" t="n">
-        <v>755.8403790129597</v>
+        <v>755.8403790129598</v>
       </c>
       <c r="N12" t="n">
-        <v>1260.586004317513</v>
+        <v>1006.048511961736</v>
       </c>
       <c r="O12" t="n">
-        <v>1485.866847119341</v>
+        <v>1231.329354763564</v>
       </c>
       <c r="P12" t="n">
-        <v>1663.532961313211</v>
+        <v>1408.995468957434</v>
       </c>
       <c r="Q12" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.524390138853</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.46554903009</v>
+        <v>981.1276730393365</v>
       </c>
       <c r="C13" t="n">
-        <v>289.4929859090061</v>
+        <v>809.1551099182525</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1759141195554</v>
+        <v>645.8383370450232</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1759141195554</v>
+        <v>479.6301311978767</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1759141195554</v>
+        <v>307.7683569724371</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1759141195554</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H13" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I13" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="J13" t="n">
         <v>161.6426112355429</v>
       </c>
       <c r="K13" t="n">
-        <v>489.7879925407226</v>
+        <v>489.7879925407227</v>
       </c>
       <c r="L13" t="n">
-        <v>974.5130865851158</v>
+        <v>598.1241929939509</v>
       </c>
       <c r="M13" t="n">
-        <v>1304.417078909569</v>
+        <v>712.8789975055242</v>
       </c>
       <c r="N13" t="n">
-        <v>1417.720118619173</v>
+        <v>1040.017794315971</v>
       </c>
       <c r="O13" t="n">
-        <v>1519.07293747027</v>
+        <v>1519.072937470271</v>
       </c>
       <c r="P13" t="n">
-        <v>1915.456417501846</v>
+        <v>1915.456417501847</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.783173864624</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="S13" t="n">
-        <v>1954.200281281117</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="T13" t="n">
-        <v>1714.673929230418</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.538157271872</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="V13" t="n">
-        <v>1152.826689879901</v>
+        <v>1672.488813889147</v>
       </c>
       <c r="W13" t="n">
-        <v>877.9742860524136</v>
+        <v>1397.63641006166</v>
       </c>
       <c r="X13" t="n">
-        <v>877.9742860524136</v>
+        <v>1397.63641006166</v>
       </c>
       <c r="Y13" t="n">
-        <v>651.6315177421557</v>
+        <v>1171.293641751402</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1573.258467509623</v>
+        <v>743.1003642246208</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.258467509623</v>
+        <v>743.1003642246208</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.258467509623</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.281527657481</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="F14" t="n">
-        <v>722.1573458468811</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="G14" t="n">
         <v>319.8077434096211</v>
       </c>
       <c r="H14" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I14" t="n">
-        <v>83.28385069007345</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6508459321587</v>
+        <v>219.6508459321585</v>
       </c>
       <c r="K14" t="n">
         <v>432.2746315182158</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0497753208665</v>
+        <v>702.0497753208667</v>
       </c>
       <c r="M14" t="n">
         <v>1007.372886491277</v>
@@ -5296,34 +5296,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P14" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q14" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R14" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S14" t="n">
-        <v>2115.696091756305</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T14" t="n">
-        <v>1978.595737554733</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="U14" t="n">
-        <v>1978.595737554733</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="V14" t="n">
-        <v>1978.595737554733</v>
+        <v>1699.174201897072</v>
       </c>
       <c r="W14" t="n">
-        <v>1978.595737554733</v>
+        <v>1302.782852197419</v>
       </c>
       <c r="X14" t="n">
-        <v>1978.595737554733</v>
+        <v>891.0628533651666</v>
       </c>
       <c r="Y14" t="n">
-        <v>1573.258467509623</v>
+        <v>743.1003642246208</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>898.2642659075649</v>
+        <v>598.092564290113</v>
       </c>
       <c r="C15" t="n">
-        <v>780.7583624250697</v>
+        <v>480.5866608076178</v>
       </c>
       <c r="D15" t="n">
-        <v>676.9184039403547</v>
+        <v>376.7467023229029</v>
       </c>
       <c r="E15" t="n">
-        <v>572.2164702132919</v>
+        <v>272.0447685958401</v>
       </c>
       <c r="F15" t="n">
-        <v>478.5706398961961</v>
+        <v>178.3989382787443</v>
       </c>
       <c r="G15" t="n">
-        <v>385.5813230419625</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H15" t="n">
-        <v>342.4856234525779</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I15" t="n">
-        <v>362.3946419712724</v>
+        <v>62.22294035382065</v>
       </c>
       <c r="J15" t="n">
-        <v>718.5507881996944</v>
+        <v>418.3790865822419</v>
       </c>
       <c r="K15" t="n">
-        <v>864.8411403540929</v>
+        <v>564.6694387366406</v>
       </c>
       <c r="L15" t="n">
-        <v>1069.073985114157</v>
+        <v>768.9022834967043</v>
       </c>
       <c r="M15" t="n">
-        <v>1310.549572986188</v>
+        <v>1010.377871368736</v>
       </c>
       <c r="N15" t="n">
-        <v>1560.757705934965</v>
+        <v>1260.586004317513</v>
       </c>
       <c r="O15" t="n">
-        <v>1786.038548736793</v>
+        <v>1485.866847119341</v>
       </c>
       <c r="P15" t="n">
-        <v>1963.704662930663</v>
+        <v>1663.532961313211</v>
       </c>
       <c r="Q15" t="n">
-        <v>2074.357885788952</v>
+        <v>1774.1861841715</v>
       </c>
       <c r="R15" t="n">
-        <v>2115.696091756305</v>
+        <v>1815.524390138853</v>
       </c>
       <c r="S15" t="n">
-        <v>2054.14362774198</v>
+        <v>1753.971926124528</v>
       </c>
       <c r="T15" t="n">
-        <v>1916.554192386068</v>
+        <v>1616.382490768616</v>
       </c>
       <c r="U15" t="n">
-        <v>1731.856026235189</v>
+        <v>1431.684324617737</v>
       </c>
       <c r="V15" t="n">
-        <v>1526.882887374455</v>
+        <v>1226.711185757003</v>
       </c>
       <c r="W15" t="n">
-        <v>1330.361510207672</v>
+        <v>1030.189808590221</v>
       </c>
       <c r="X15" t="n">
-        <v>1166.884163974335</v>
+        <v>866.7124623568834</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.191275327628</v>
+        <v>727.0195737101758</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>845.0380224123702</v>
+        <v>740.1394719185669</v>
       </c>
       <c r="C16" t="n">
-        <v>673.0654592912862</v>
+        <v>568.1669087974828</v>
       </c>
       <c r="D16" t="n">
-        <v>509.7486864180569</v>
+        <v>568.1669087974828</v>
       </c>
       <c r="E16" t="n">
-        <v>343.5404805709104</v>
+        <v>422.9692569174666</v>
       </c>
       <c r="F16" t="n">
-        <v>343.5404805709104</v>
+        <v>251.107482692027</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1759141195554</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H16" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I16" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="J16" t="n">
-        <v>161.6426112355429</v>
+        <v>150.4629721231188</v>
       </c>
       <c r="K16" t="n">
-        <v>489.7879925407226</v>
+        <v>478.6083534282986</v>
       </c>
       <c r="L16" t="n">
-        <v>974.5130865851158</v>
+        <v>963.3334474726919</v>
       </c>
       <c r="M16" t="n">
-        <v>1089.267891096689</v>
+        <v>1078.088251984265</v>
       </c>
       <c r="N16" t="n">
-        <v>1417.720118619173</v>
+        <v>1191.39129169387</v>
       </c>
       <c r="O16" t="n">
-        <v>1519.07293747027</v>
+        <v>1670.446434848169</v>
       </c>
       <c r="P16" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q16" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R16" t="n">
-        <v>2115.696091756305</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="S16" t="n">
-        <v>2115.696091756305</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="T16" t="n">
-        <v>1876.169739705605</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="U16" t="n">
-        <v>1596.033967747059</v>
+        <v>1674.064509322572</v>
       </c>
       <c r="V16" t="n">
-        <v>1596.033967747059</v>
+        <v>1674.064509322572</v>
       </c>
       <c r="W16" t="n">
-        <v>1321.181563919572</v>
+        <v>1399.212105495085</v>
       </c>
       <c r="X16" t="n">
-        <v>1078.617667365377</v>
+        <v>1156.648208940891</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.203991124436</v>
+        <v>930.3054406306326</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1570.574148472481</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="C17" t="n">
-        <v>1570.574148472481</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="D17" t="n">
-        <v>1147.281527657481</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.281527657481</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="F17" t="n">
-        <v>722.1573458468811</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="G17" t="n">
-        <v>319.8077434096211</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="H17" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I17" t="n">
         <v>83.28385069007345</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6508459321587</v>
+        <v>219.6508459321591</v>
       </c>
       <c r="K17" t="n">
-        <v>432.2746315182158</v>
+        <v>432.2746315182162</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0497753208665</v>
+        <v>702.049775320867</v>
       </c>
       <c r="M17" t="n">
         <v>1007.372886491277</v>
@@ -5533,34 +5533,34 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P17" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q17" t="n">
-        <v>2027.89491136433</v>
+        <v>2027.894911364331</v>
       </c>
       <c r="R17" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="S17" t="n">
-        <v>2056.663616770822</v>
+        <v>2056.663616770823</v>
       </c>
       <c r="T17" t="n">
-        <v>1966.965498172134</v>
+        <v>1844.446906848539</v>
       </c>
       <c r="U17" t="n">
-        <v>1966.965498172134</v>
+        <v>1586.251154242815</v>
       </c>
       <c r="V17" t="n">
-        <v>1966.965498172134</v>
+        <v>1228.761739369064</v>
       </c>
       <c r="W17" t="n">
-        <v>1570.574148472481</v>
+        <v>832.370389669411</v>
       </c>
       <c r="X17" t="n">
-        <v>1570.574148472481</v>
+        <v>462.1622861266562</v>
       </c>
       <c r="Y17" t="n">
-        <v>1570.574148472481</v>
+        <v>462.1622861266562</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>85.40962142451073</v>
       </c>
       <c r="H18" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I18" t="n">
-        <v>85.68024619823245</v>
+        <v>85.68024619823248</v>
       </c>
       <c r="J18" t="n">
-        <v>163.8415942264657</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K18" t="n">
-        <v>310.1319463808642</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L18" t="n">
-        <v>514.3647911409279</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M18" t="n">
-        <v>755.8403790129597</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N18" t="n">
-        <v>1006.048511961736</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O18" t="n">
-        <v>1231.329354763564</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P18" t="n">
-        <v>1408.995468957434</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q18" t="n">
         <v>1668.730683886594</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>343.5404805709104</v>
+        <v>515.40225479635</v>
       </c>
       <c r="C19" t="n">
-        <v>343.5404805709104</v>
+        <v>515.40225479635</v>
       </c>
       <c r="D19" t="n">
-        <v>343.5404805709104</v>
+        <v>515.40225479635</v>
       </c>
       <c r="E19" t="n">
-        <v>343.5404805709104</v>
+        <v>515.40225479635</v>
       </c>
       <c r="F19" t="n">
-        <v>343.5404805709104</v>
+        <v>343.5404805709105</v>
       </c>
       <c r="G19" t="n">
-        <v>178.1759141195554</v>
+        <v>178.1759141195555</v>
       </c>
       <c r="H19" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="I19" t="n">
-        <v>42.3139218351261</v>
+        <v>42.31392183512611</v>
       </c>
       <c r="J19" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732204</v>
       </c>
       <c r="K19" t="n">
-        <v>489.7879925407226</v>
+        <v>362.153981264817</v>
       </c>
       <c r="L19" t="n">
-        <v>974.5130865851158</v>
+        <v>846.8790753092103</v>
       </c>
       <c r="M19" t="n">
-        <v>1089.267891096689</v>
+        <v>1370.513858018896</v>
       </c>
       <c r="N19" t="n">
-        <v>1202.570930806293</v>
+        <v>1881.84982057038</v>
       </c>
       <c r="O19" t="n">
-        <v>1519.07293747027</v>
+        <v>1983.202639421477</v>
       </c>
       <c r="P19" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q19" t="n">
-        <v>2115.696091756305</v>
+        <v>2115.696091756306</v>
       </c>
       <c r="R19" t="n">
-        <v>2108.783173864624</v>
+        <v>2108.783173864625</v>
       </c>
       <c r="S19" t="n">
-        <v>1954.200281281117</v>
+        <v>1954.200281281118</v>
       </c>
       <c r="T19" t="n">
-        <v>1714.673929230418</v>
+        <v>1714.673929230419</v>
       </c>
       <c r="U19" t="n">
-        <v>1559.176985366887</v>
+        <v>1434.538157271873</v>
       </c>
       <c r="V19" t="n">
-        <v>1277.465517974916</v>
+        <v>1152.826689879902</v>
       </c>
       <c r="W19" t="n">
-        <v>1002.613114147429</v>
+        <v>877.9742860524145</v>
       </c>
       <c r="X19" t="n">
-        <v>760.0492175932341</v>
+        <v>635.4103894982196</v>
       </c>
       <c r="Y19" t="n">
-        <v>533.7064492829761</v>
+        <v>635.4103894982196</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>444.6635242723861</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="C20" t="n">
-        <v>444.6635242723861</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="D20" t="n">
-        <v>444.6635242723861</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="E20" t="n">
-        <v>444.6635242723861</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="F20" t="n">
-        <v>444.6635242723861</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G20" t="n">
-        <v>42.3139218351261</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H20" t="n">
         <v>42.3139218351261</v>
@@ -5752,22 +5752,22 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J20" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321591</v>
       </c>
       <c r="K20" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M20" t="n">
-        <v>1007.372886491277</v>
+        <v>1007.372886491276</v>
       </c>
       <c r="N20" t="n">
         <v>1318.386188667469</v>
       </c>
       <c r="O20" t="n">
-        <v>1609.90025066081</v>
+        <v>1609.900250660811</v>
       </c>
       <c r="P20" t="n">
         <v>1853.09434551636</v>
@@ -5785,19 +5785,19 @@
         <v>2056.663616770822</v>
       </c>
       <c r="U20" t="n">
-        <v>2056.663616770822</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V20" t="n">
-        <v>2056.663616770822</v>
+        <v>1440.978449291347</v>
       </c>
       <c r="W20" t="n">
-        <v>1660.272267071169</v>
+        <v>1440.978449291347</v>
       </c>
       <c r="X20" t="n">
-        <v>1248.552268238916</v>
+        <v>1147.281527657481</v>
       </c>
       <c r="Y20" t="n">
-        <v>843.2149981938065</v>
+        <v>1147.281527657481</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G21" t="n">
-        <v>85.40962142451073</v>
+        <v>85.40962142451072</v>
       </c>
       <c r="H21" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I21" t="n">
-        <v>62.2229403538206</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J21" t="n">
-        <v>418.379086582243</v>
+        <v>312.9235862973363</v>
       </c>
       <c r="K21" t="n">
-        <v>564.6694387366415</v>
+        <v>459.2139384517349</v>
       </c>
       <c r="L21" t="n">
-        <v>768.9022834967051</v>
+        <v>663.4467832117986</v>
       </c>
       <c r="M21" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.524390138853</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>694.7212352320289</v>
+        <v>754.542029215968</v>
       </c>
       <c r="C22" t="n">
-        <v>694.7212352320289</v>
+        <v>754.542029215968</v>
       </c>
       <c r="D22" t="n">
-        <v>531.4044623587996</v>
+        <v>754.542029215968</v>
       </c>
       <c r="E22" t="n">
-        <v>416.472049143382</v>
+        <v>588.3338233688215</v>
       </c>
       <c r="F22" t="n">
         <v>416.472049143382</v>
@@ -5910,52 +5910,52 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J22" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732202</v>
       </c>
       <c r="K22" t="n">
-        <v>489.7879925407225</v>
+        <v>411.8662758925018</v>
       </c>
       <c r="L22" t="n">
-        <v>974.5130865851157</v>
+        <v>896.591369936895</v>
       </c>
       <c r="M22" t="n">
-        <v>1089.267891096689</v>
+        <v>1011.346174448468</v>
       </c>
       <c r="N22" t="n">
-        <v>1202.570930806293</v>
+        <v>1124.649214158073</v>
       </c>
       <c r="O22" t="n">
-        <v>1519.07293747027</v>
+        <v>1603.704357312372</v>
       </c>
       <c r="P22" t="n">
-        <v>1915.456417501846</v>
+        <v>2000.087837343949</v>
       </c>
       <c r="Q22" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R22" t="n">
-        <v>2115.696091756305</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="S22" t="n">
-        <v>1961.113199172798</v>
+        <v>1954.200281281117</v>
       </c>
       <c r="T22" t="n">
-        <v>1721.586847122099</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U22" t="n">
-        <v>1441.451075163553</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="V22" t="n">
-        <v>1159.739607771582</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="W22" t="n">
-        <v>884.8872039440946</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="X22" t="n">
-        <v>884.8872039440946</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.8872039440946</v>
+        <v>944.7079979280336</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>746.708473396321</v>
+        <v>1318.484212488968</v>
       </c>
       <c r="C23" t="n">
-        <v>319.8077434096211</v>
+        <v>891.5834825022682</v>
       </c>
       <c r="D23" t="n">
-        <v>319.8077434096211</v>
+        <v>468.2908616872685</v>
       </c>
       <c r="E23" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F23" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G23" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H23" t="n">
         <v>42.3139218351261</v>
@@ -6022,19 +6022,19 @@
         <v>2056.663616770822</v>
       </c>
       <c r="U23" t="n">
-        <v>1798.467864165098</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V23" t="n">
-        <v>1440.978449291347</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W23" t="n">
-        <v>1044.587099591694</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="X23" t="n">
-        <v>1044.587099591694</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="Y23" t="n">
-        <v>1044.587099591694</v>
+        <v>1738.332576780498</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J24" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K24" t="n">
-        <v>286.6746405364524</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L24" t="n">
-        <v>768.9022834967047</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M24" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N24" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O24" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P24" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R24" t="n">
         <v>1815.524390138853</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1089.831365210281</v>
+        <v>687.374817917434</v>
       </c>
       <c r="C25" t="n">
-        <v>917.8588020891974</v>
+        <v>515.40225479635</v>
       </c>
       <c r="D25" t="n">
-        <v>754.5420292159681</v>
+        <v>515.40225479635</v>
       </c>
       <c r="E25" t="n">
-        <v>588.3338233688216</v>
+        <v>515.40225479635</v>
       </c>
       <c r="F25" t="n">
-        <v>416.472049143382</v>
+        <v>343.5404805709104</v>
       </c>
       <c r="G25" t="n">
-        <v>251.107482692027</v>
+        <v>178.1759141195554</v>
       </c>
       <c r="H25" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I25" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J25" t="n">
-        <v>161.6426112355429</v>
+        <v>128.6042809837216</v>
       </c>
       <c r="K25" t="n">
-        <v>242.5053834267005</v>
+        <v>209.4670531748793</v>
       </c>
       <c r="L25" t="n">
-        <v>350.8415838799288</v>
+        <v>317.8032536281075</v>
       </c>
       <c r="M25" t="n">
-        <v>874.4763665896141</v>
+        <v>841.4380363377929</v>
       </c>
       <c r="N25" t="n">
-        <v>1385.812329141099</v>
+        <v>1352.773998889277</v>
       </c>
       <c r="O25" t="n">
         <v>1831.829142043577</v>
@@ -6180,19 +6180,19 @@
         <v>1869.256821813924</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.256821813924</v>
+        <v>1660.447426159216</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.9039987868</v>
+        <v>1378.735958767245</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.9039987868</v>
+        <v>1103.883554939758</v>
       </c>
       <c r="X25" t="n">
-        <v>1506.340102232605</v>
+        <v>1103.883554939758</v>
       </c>
       <c r="Y25" t="n">
-        <v>1279.997333922347</v>
+        <v>877.5407866294997</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="C26" t="n">
-        <v>1573.258467509623</v>
+        <v>1371.567134178398</v>
       </c>
       <c r="D26" t="n">
-        <v>1573.258467509623</v>
+        <v>1170.908865072363</v>
       </c>
       <c r="E26" t="n">
-        <v>1147.281527657481</v>
+        <v>744.9319252202208</v>
       </c>
       <c r="F26" t="n">
-        <v>722.1573458468811</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="G26" t="n">
         <v>319.8077434096211</v>
@@ -6223,16 +6223,16 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I26" t="n">
-        <v>83.28385069007339</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J26" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K26" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M26" t="n">
         <v>1007.372886491277</v>
@@ -6259,19 +6259,19 @@
         <v>2056.663616770822</v>
       </c>
       <c r="U26" t="n">
-        <v>2056.663616770822</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V26" t="n">
-        <v>1699.174201897071</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="W26" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="X26" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="Y26" t="n">
-        <v>1573.258467509623</v>
+        <v>1798.467864165098</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I27" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J27" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K27" t="n">
         <v>459.2139384517353</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599.8273133696594</v>
+        <v>660.5332349096284</v>
       </c>
       <c r="C28" t="n">
-        <v>599.8273133696594</v>
+        <v>488.5606717885444</v>
       </c>
       <c r="D28" t="n">
-        <v>436.5105404964301</v>
+        <v>488.5606717885444</v>
       </c>
       <c r="E28" t="n">
-        <v>379.5402625119207</v>
+        <v>322.3524659413979</v>
       </c>
       <c r="F28" t="n">
-        <v>207.6784882864811</v>
+        <v>251.107482692027</v>
       </c>
       <c r="G28" t="n">
-        <v>42.3139218351261</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H28" t="n">
-        <v>42.3139218351261</v>
+        <v>115.2454904075976</v>
       </c>
       <c r="I28" t="n">
         <v>42.3139218351261</v>
@@ -6387,49 +6387,49 @@
         <v>83.72089458732201</v>
       </c>
       <c r="K28" t="n">
-        <v>411.8662758925017</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L28" t="n">
-        <v>896.591369936895</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M28" t="n">
-        <v>1011.346174448468</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.649214158073</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O28" t="n">
-        <v>1603.704357312372</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P28" t="n">
-        <v>2000.087837343949</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q28" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R28" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S28" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.256821813924</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.121049855378</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.409582463407</v>
+        <v>1594.458272313634</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.55717863592</v>
+        <v>1319.605868486147</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9932820817249</v>
+        <v>1077.041971931952</v>
       </c>
       <c r="Y28" t="n">
-        <v>789.9932820817249</v>
+        <v>850.6992036216941</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>319.8077434096211</v>
+        <v>892.5072726368257</v>
       </c>
       <c r="C29" t="n">
-        <v>319.8077434096211</v>
+        <v>465.6065426501258</v>
       </c>
       <c r="D29" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="E29" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="F29" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G29" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H29" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I29" t="n">
-        <v>83.28385069007339</v>
+        <v>83.28385069007345</v>
       </c>
       <c r="J29" t="n">
-        <v>219.650845932159</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K29" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M29" t="n">
         <v>1007.372886491277</v>
@@ -6493,22 +6493,22 @@
         <v>2056.663616770822</v>
       </c>
       <c r="T29" t="n">
-        <v>1844.446906848538</v>
+        <v>1975.88865957919</v>
       </c>
       <c r="U29" t="n">
-        <v>1586.251154242814</v>
+        <v>1717.692906973466</v>
       </c>
       <c r="V29" t="n">
-        <v>1228.761739369063</v>
+        <v>1717.692906973466</v>
       </c>
       <c r="W29" t="n">
-        <v>1136.865012286984</v>
+        <v>1717.692906973466</v>
       </c>
       <c r="X29" t="n">
-        <v>725.1450134547308</v>
+        <v>1717.692906973466</v>
       </c>
       <c r="Y29" t="n">
-        <v>319.8077434096211</v>
+        <v>1312.355636928356</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I30" t="n">
-        <v>85.68024619823245</v>
+        <v>62.22294035382062</v>
       </c>
       <c r="J30" t="n">
-        <v>163.8415942264657</v>
+        <v>418.3790865822425</v>
       </c>
       <c r="K30" t="n">
-        <v>310.1319463808642</v>
+        <v>564.669438736641</v>
       </c>
       <c r="L30" t="n">
-        <v>514.3647911409279</v>
+        <v>768.9022834967047</v>
       </c>
       <c r="M30" t="n">
-        <v>755.8403790129597</v>
+        <v>1010.377871368737</v>
       </c>
       <c r="N30" t="n">
         <v>1260.586004317513</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>450.5348264019109</v>
+        <v>917.9695909848418</v>
       </c>
       <c r="C31" t="n">
-        <v>278.5622632808269</v>
+        <v>745.9970278637578</v>
       </c>
       <c r="D31" t="n">
-        <v>115.2454904075976</v>
+        <v>582.6802549905285</v>
       </c>
       <c r="E31" t="n">
-        <v>115.2454904075976</v>
+        <v>416.472049143382</v>
       </c>
       <c r="F31" t="n">
-        <v>115.2454904075976</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G31" t="n">
-        <v>115.2454904075976</v>
+        <v>251.107482692027</v>
       </c>
       <c r="H31" t="n">
         <v>115.2454904075976</v>
@@ -6621,22 +6621,22 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J31" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K31" t="n">
-        <v>242.5053834267005</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L31" t="n">
-        <v>727.2304774710938</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M31" t="n">
-        <v>1250.865260180779</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N31" t="n">
-        <v>1569.093615997072</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O31" t="n">
-        <v>1670.446434848169</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P31" t="n">
         <v>2066.829914879745</v>
@@ -6657,16 +6657,16 @@
         <v>1434.538157271872</v>
       </c>
       <c r="V31" t="n">
-        <v>1152.826689879901</v>
+        <v>1334.478328007165</v>
       </c>
       <c r="W31" t="n">
-        <v>1109.607459978429</v>
+        <v>1334.478328007165</v>
       </c>
       <c r="X31" t="n">
-        <v>867.0435634242344</v>
+        <v>1334.478328007165</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.7007951139765</v>
+        <v>1108.135559696907</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1361.815327182901</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="C32" t="n">
-        <v>934.9145971962007</v>
+        <v>1316.707664312868</v>
       </c>
       <c r="D32" t="n">
-        <v>511.621976381201</v>
+        <v>893.4150434978683</v>
       </c>
       <c r="E32" t="n">
-        <v>511.621976381201</v>
+        <v>467.4381036457259</v>
       </c>
       <c r="F32" t="n">
-        <v>86.49779457060117</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="G32" t="n">
-        <v>42.31392183512609</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H32" t="n">
-        <v>42.31392183512609</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I32" t="n">
-        <v>83.28385069007339</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J32" t="n">
         <v>219.650845932159</v>
@@ -6715,37 +6715,37 @@
         <v>1318.386188667469</v>
       </c>
       <c r="O32" t="n">
-        <v>1609.90025066081</v>
+        <v>1609.900250660811</v>
       </c>
       <c r="P32" t="n">
-        <v>1853.094345516359</v>
+        <v>1853.09434551636</v>
       </c>
       <c r="Q32" t="n">
-        <v>2027.894911364329</v>
+        <v>2027.89491136433</v>
       </c>
       <c r="R32" t="n">
-        <v>2115.696091756304</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S32" t="n">
-        <v>2115.696091756304</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="T32" t="n">
-        <v>2115.696091756304</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U32" t="n">
-        <v>2115.696091756304</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="V32" t="n">
-        <v>1758.206676882554</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="W32" t="n">
-        <v>1361.815327182901</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="X32" t="n">
-        <v>1361.815327182901</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="Y32" t="n">
-        <v>1361.815327182901</v>
+        <v>1736.556028604398</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.3989382787443</v>
       </c>
       <c r="G33" t="n">
-        <v>85.40962142451072</v>
+        <v>85.40962142451073</v>
       </c>
       <c r="H33" t="n">
-        <v>42.31392183512609</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I33" t="n">
         <v>85.68024619823245</v>
       </c>
       <c r="J33" t="n">
-        <v>163.8415942264657</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K33" t="n">
-        <v>310.1319463808642</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L33" t="n">
-        <v>514.3647911409279</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M33" t="n">
-        <v>755.8403790129597</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N33" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O33" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P33" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R33" t="n">
         <v>1815.524390138853</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.831365210281</v>
+        <v>851.5352301864548</v>
       </c>
       <c r="C34" t="n">
-        <v>917.8588020891973</v>
+        <v>679.5626670653708</v>
       </c>
       <c r="D34" t="n">
-        <v>754.542029215968</v>
+        <v>516.2458941921415</v>
       </c>
       <c r="E34" t="n">
-        <v>588.3338233688215</v>
+        <v>350.037688344995</v>
       </c>
       <c r="F34" t="n">
-        <v>416.472049143382</v>
+        <v>178.1759141195554</v>
       </c>
       <c r="G34" t="n">
-        <v>251.107482692027</v>
+        <v>178.1759141195554</v>
       </c>
       <c r="H34" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I34" t="n">
-        <v>42.31392183512609</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="J34" t="n">
-        <v>83.72089458732199</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K34" t="n">
-        <v>327.2348560503987</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L34" t="n">
-        <v>811.9599500947919</v>
+        <v>469.1767510060065</v>
       </c>
       <c r="M34" t="n">
-        <v>926.7147546063652</v>
+        <v>992.8115337156919</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.017794315969</v>
+        <v>1504.147496267176</v>
       </c>
       <c r="O34" t="n">
-        <v>1519.072937470269</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P34" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q34" t="n">
-        <v>2115.696091756304</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="R34" t="n">
-        <v>2108.783173864623</v>
+        <v>2108.783173864624</v>
       </c>
       <c r="S34" t="n">
         <v>1954.200281281117</v>
       </c>
       <c r="T34" t="n">
-        <v>1836.561205141805</v>
+        <v>1714.673929230418</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.561205141805</v>
+        <v>1434.538157271872</v>
       </c>
       <c r="V34" t="n">
-        <v>1554.849737749834</v>
+        <v>1152.826689879901</v>
       </c>
       <c r="W34" t="n">
-        <v>1279.997333922347</v>
+        <v>1094.09912674065</v>
       </c>
       <c r="X34" t="n">
-        <v>1279.997333922347</v>
+        <v>851.5352301864548</v>
       </c>
       <c r="Y34" t="n">
-        <v>1279.997333922347</v>
+        <v>851.5352301864548</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>471.2144890736356</v>
+        <v>1170.908865072363</v>
       </c>
       <c r="C35" t="n">
-        <v>471.2144890736356</v>
+        <v>1170.908865072363</v>
       </c>
       <c r="D35" t="n">
-        <v>471.2144890736356</v>
+        <v>1170.908865072363</v>
       </c>
       <c r="E35" t="n">
-        <v>45.23754922149317</v>
+        <v>744.9319252202208</v>
       </c>
       <c r="F35" t="n">
-        <v>45.23754922149317</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="G35" t="n">
-        <v>45.23754922149317</v>
+        <v>319.8077434096211</v>
       </c>
       <c r="H35" t="n">
         <v>42.3139218351261</v>
@@ -6937,16 +6937,16 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J35" t="n">
-        <v>219.6508459321591</v>
+        <v>219.6508459321587</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2746315182161</v>
+        <v>432.2746315182158</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208665</v>
       </c>
       <c r="M35" t="n">
-        <v>1007.372886491276</v>
+        <v>1007.372886491277</v>
       </c>
       <c r="N35" t="n">
         <v>1318.386188667469</v>
@@ -6967,22 +6967,22 @@
         <v>2056.663616770822</v>
       </c>
       <c r="T35" t="n">
-        <v>2056.663616770822</v>
+        <v>1933.735549991223</v>
       </c>
       <c r="U35" t="n">
-        <v>2056.663616770822</v>
+        <v>1933.735549991223</v>
       </c>
       <c r="V35" t="n">
-        <v>1699.174201897071</v>
+        <v>1576.246135117473</v>
       </c>
       <c r="W35" t="n">
-        <v>1302.782852197418</v>
+        <v>1576.246135117473</v>
       </c>
       <c r="X35" t="n">
-        <v>891.0628533651657</v>
+        <v>1576.246135117473</v>
       </c>
       <c r="Y35" t="n">
-        <v>891.0628533651657</v>
+        <v>1170.908865072363</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I36" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823245</v>
       </c>
       <c r="J36" t="n">
-        <v>144.9524368213336</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K36" t="n">
-        <v>291.2427889757321</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L36" t="n">
-        <v>495.4756337357958</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M36" t="n">
-        <v>736.9512216078276</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N36" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O36" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P36" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.524390138853</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>648.3369488868884</v>
+        <v>606.7402312613403</v>
       </c>
       <c r="C37" t="n">
-        <v>476.3643857658044</v>
+        <v>606.7402312613403</v>
       </c>
       <c r="D37" t="n">
-        <v>313.0476128925751</v>
+        <v>606.7402312613403</v>
       </c>
       <c r="E37" t="n">
-        <v>313.0476128925751</v>
+        <v>588.3338233688216</v>
       </c>
       <c r="F37" t="n">
-        <v>313.0476128925751</v>
+        <v>416.472049143382</v>
       </c>
       <c r="G37" t="n">
         <v>251.107482692027</v>
@@ -7095,52 +7095,52 @@
         <v>42.3139218351261</v>
       </c>
       <c r="J37" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732201</v>
       </c>
       <c r="K37" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L37" t="n">
-        <v>780.7822961998836</v>
+        <v>649.308760822873</v>
       </c>
       <c r="M37" t="n">
-        <v>1304.417078909569</v>
+        <v>764.0635653344463</v>
       </c>
       <c r="N37" t="n">
-        <v>1417.720118619173</v>
+        <v>1275.399527885931</v>
       </c>
       <c r="O37" t="n">
-        <v>1519.07293747027</v>
+        <v>1754.45467104023</v>
       </c>
       <c r="P37" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q37" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R37" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S37" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.256821813924</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.121049855378</v>
+        <v>1596.033967747059</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.409582463407</v>
+        <v>1314.322500355088</v>
       </c>
       <c r="W37" t="n">
-        <v>1307.409582463407</v>
+        <v>1039.470096527601</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.845685909212</v>
+        <v>796.9061999734059</v>
       </c>
       <c r="Y37" t="n">
-        <v>838.5029175989541</v>
+        <v>796.9061999734059</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1147.281527657481</v>
+        <v>1722.665375921828</v>
       </c>
       <c r="C38" t="n">
-        <v>1147.281527657481</v>
+        <v>1295.764645935128</v>
       </c>
       <c r="D38" t="n">
-        <v>1147.281527657481</v>
+        <v>1295.764645935128</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.281527657481</v>
+        <v>869.7877060829859</v>
       </c>
       <c r="F38" t="n">
-        <v>722.1573458468811</v>
+        <v>444.6635242723861</v>
       </c>
       <c r="G38" t="n">
-        <v>319.8077434096211</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H38" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="I38" t="n">
-        <v>83.28385069007345</v>
+        <v>83.283850690073</v>
       </c>
       <c r="J38" t="n">
-        <v>219.6508459321591</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2746315182161</v>
+        <v>432.274631518216</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208666</v>
       </c>
       <c r="M38" t="n">
         <v>1007.372886491276</v>
@@ -7204,22 +7204,22 @@
         <v>2056.663616770822</v>
       </c>
       <c r="T38" t="n">
-        <v>1844.446906848538</v>
+        <v>2056.663616770822</v>
       </c>
       <c r="U38" t="n">
-        <v>1586.251154242814</v>
+        <v>1798.467864165098</v>
       </c>
       <c r="V38" t="n">
-        <v>1228.761739369063</v>
+        <v>1722.665375921828</v>
       </c>
       <c r="W38" t="n">
-        <v>1228.761739369063</v>
+        <v>1722.665375921828</v>
       </c>
       <c r="X38" t="n">
-        <v>1228.761739369063</v>
+        <v>1722.665375921828</v>
       </c>
       <c r="Y38" t="n">
-        <v>1228.761739369063</v>
+        <v>1722.665375921828</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>85.68024619823245</v>
       </c>
       <c r="J39" t="n">
-        <v>418.3790865822425</v>
+        <v>312.9235862973368</v>
       </c>
       <c r="K39" t="n">
-        <v>564.669438736641</v>
+        <v>459.2139384517353</v>
       </c>
       <c r="L39" t="n">
-        <v>768.9022834967047</v>
+        <v>663.4467832117989</v>
       </c>
       <c r="M39" t="n">
-        <v>1010.377871368737</v>
+        <v>904.9223710838307</v>
       </c>
       <c r="N39" t="n">
-        <v>1260.586004317513</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O39" t="n">
-        <v>1485.866847119341</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.524390138853</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>468.378466921771</v>
+        <v>542.9678242807944</v>
       </c>
       <c r="C40" t="n">
-        <v>468.378466921771</v>
+        <v>370.9952611597104</v>
       </c>
       <c r="D40" t="n">
-        <v>305.0616940485417</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="E40" t="n">
-        <v>287.1072646330372</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="F40" t="n">
-        <v>115.2454904075976</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="G40" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H40" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I40" t="n">
         <v>42.3139218351261</v>
@@ -7338,19 +7338,19 @@
         <v>489.7879925407226</v>
       </c>
       <c r="L40" t="n">
-        <v>598.1241929939508</v>
+        <v>974.5130865851158</v>
       </c>
       <c r="M40" t="n">
-        <v>1121.758975703636</v>
+        <v>1089.267891096689</v>
       </c>
       <c r="N40" t="n">
-        <v>1633.094938255121</v>
+        <v>1600.603853648174</v>
       </c>
       <c r="O40" t="n">
-        <v>1831.829142043577</v>
+        <v>1983.202639421476</v>
       </c>
       <c r="P40" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879745</v>
       </c>
       <c r="Q40" t="n">
         <v>2115.696091756305</v>
@@ -7359,25 +7359,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S40" t="n">
-        <v>1961.113199172798</v>
+        <v>2038.740101035317</v>
       </c>
       <c r="T40" t="n">
-        <v>1721.586847122099</v>
+        <v>2038.740101035317</v>
       </c>
       <c r="U40" t="n">
-        <v>1441.451075163553</v>
+        <v>1758.604329076771</v>
       </c>
       <c r="V40" t="n">
-        <v>1159.739607771582</v>
+        <v>1476.8928616848</v>
       </c>
       <c r="W40" t="n">
-        <v>884.8872039440946</v>
+        <v>1202.040457857313</v>
       </c>
       <c r="X40" t="n">
-        <v>884.8872039440946</v>
+        <v>959.4765613031179</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.5444356338367</v>
+        <v>733.13379299286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1597.809595059063</v>
+        <v>941.1494080051922</v>
       </c>
       <c r="C41" t="n">
-        <v>1170.908865072363</v>
+        <v>941.1494080051922</v>
       </c>
       <c r="D41" t="n">
-        <v>1170.908865072363</v>
+        <v>941.1494080051922</v>
       </c>
       <c r="E41" t="n">
-        <v>744.9319252202208</v>
+        <v>941.1494080051922</v>
       </c>
       <c r="F41" t="n">
-        <v>319.8077434096211</v>
+        <v>722.1573458468811</v>
       </c>
       <c r="G41" t="n">
         <v>319.8077434096211</v>
@@ -7411,13 +7411,13 @@
         <v>83.28385069007345</v>
       </c>
       <c r="J41" t="n">
-        <v>219.6508459321587</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2746315182158</v>
+        <v>432.2746315182162</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0497753208665</v>
+        <v>702.0497753208672</v>
       </c>
       <c r="M41" t="n">
         <v>1007.372886491277</v>
@@ -7438,25 +7438,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S41" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T41" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="U41" t="n">
-        <v>2056.663616770822</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="V41" t="n">
-        <v>2056.663616770822</v>
+        <v>1758.206676882555</v>
       </c>
       <c r="W41" t="n">
-        <v>2056.663616770822</v>
+        <v>1758.206676882555</v>
       </c>
       <c r="X41" t="n">
-        <v>2003.146865104173</v>
+        <v>1346.486678050302</v>
       </c>
       <c r="Y41" t="n">
-        <v>1597.809595059063</v>
+        <v>941.1494080051922</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I42" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823247</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973364</v>
       </c>
       <c r="K42" t="n">
-        <v>286.6746405364524</v>
+        <v>459.213938451735</v>
       </c>
       <c r="L42" t="n">
-        <v>490.9074852965161</v>
+        <v>663.4467832117987</v>
       </c>
       <c r="M42" t="n">
-        <v>732.383073168548</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N42" t="n">
-        <v>982.5912061173244</v>
+        <v>1155.130504032607</v>
       </c>
       <c r="O42" t="n">
-        <v>1207.872048919152</v>
+        <v>1380.411346834435</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.532961313211</v>
+        <v>1558.077461028305</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.1861841715</v>
+        <v>1668.730683886594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.524390138853</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.8083173403479</v>
+        <v>709.0652412322964</v>
       </c>
       <c r="C43" t="n">
-        <v>515.8357542192639</v>
+        <v>709.0652412322964</v>
       </c>
       <c r="D43" t="n">
-        <v>352.5189813460346</v>
+        <v>545.7484683590671</v>
       </c>
       <c r="E43" t="n">
-        <v>352.5189813460346</v>
+        <v>379.5402625119207</v>
       </c>
       <c r="F43" t="n">
-        <v>251.107482692027</v>
+        <v>207.6784882864811</v>
       </c>
       <c r="G43" t="n">
-        <v>251.107482692027</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="H43" t="n">
-        <v>115.2454904075976</v>
+        <v>42.3139218351261</v>
       </c>
       <c r="I43" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J43" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732202</v>
       </c>
       <c r="K43" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L43" t="n">
-        <v>974.5130865851158</v>
+        <v>649.308760822873</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.267891096689</v>
+        <v>764.0635653344463</v>
       </c>
       <c r="N43" t="n">
-        <v>1202.570930806293</v>
+        <v>1275.399527885931</v>
       </c>
       <c r="O43" t="n">
-        <v>1519.07293747027</v>
+        <v>1754.45467104023</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q43" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R43" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S43" t="n">
-        <v>1954.200281281117</v>
+        <v>1961.113199172799</v>
       </c>
       <c r="T43" t="n">
-        <v>1714.673929230418</v>
+        <v>1721.586847122099</v>
       </c>
       <c r="U43" t="n">
-        <v>1434.538157271872</v>
+        <v>1455.79508116382</v>
       </c>
       <c r="V43" t="n">
-        <v>1152.826689879901</v>
+        <v>1174.083613771849</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9742860524136</v>
+        <v>899.231209944362</v>
       </c>
       <c r="X43" t="n">
-        <v>877.9742860524136</v>
+        <v>899.231209944362</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.9742860524136</v>
+        <v>899.231209944362</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1307.584743224399</v>
+        <v>1295.764645935128</v>
       </c>
       <c r="C44" t="n">
-        <v>880.684013237699</v>
+        <v>1295.764645935128</v>
       </c>
       <c r="D44" t="n">
-        <v>869.7877060829859</v>
+        <v>1295.764645935128</v>
       </c>
       <c r="E44" t="n">
         <v>869.7877060829859</v>
@@ -7645,16 +7645,16 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I44" t="n">
-        <v>83.28385069007339</v>
+        <v>83.28385069007341</v>
       </c>
       <c r="J44" t="n">
-        <v>219.6508459321589</v>
+        <v>219.650845932159</v>
       </c>
       <c r="K44" t="n">
-        <v>432.274631518216</v>
+        <v>432.2746315182161</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0497753208667</v>
+        <v>702.0497753208668</v>
       </c>
       <c r="M44" t="n">
         <v>1007.372886491277</v>
@@ -7666,7 +7666,7 @@
         <v>1609.900250660811</v>
       </c>
       <c r="P44" t="n">
-        <v>1853.09434551636</v>
+        <v>1853.094345516361</v>
       </c>
       <c r="Q44" t="n">
         <v>2027.89491136433</v>
@@ -7675,25 +7675,25 @@
         <v>2115.696091756305</v>
       </c>
       <c r="S44" t="n">
-        <v>2115.696091756305</v>
+        <v>2058.591330853988</v>
       </c>
       <c r="T44" t="n">
-        <v>2115.696091756305</v>
+        <v>2058.591330853988</v>
       </c>
       <c r="U44" t="n">
-        <v>2115.696091756305</v>
+        <v>2058.591330853988</v>
       </c>
       <c r="V44" t="n">
-        <v>2115.696091756305</v>
+        <v>1701.101915980238</v>
       </c>
       <c r="W44" t="n">
-        <v>1719.304742056652</v>
+        <v>1701.101915980238</v>
       </c>
       <c r="X44" t="n">
-        <v>1307.584743224399</v>
+        <v>1701.101915980238</v>
       </c>
       <c r="Y44" t="n">
-        <v>1307.584743224399</v>
+        <v>1295.764645935128</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>42.3139218351261</v>
       </c>
       <c r="I45" t="n">
-        <v>62.22294035382062</v>
+        <v>85.68024619823247</v>
       </c>
       <c r="J45" t="n">
-        <v>140.3842883820539</v>
+        <v>312.9235862973364</v>
       </c>
       <c r="K45" t="n">
-        <v>459.2139384517353</v>
+        <v>459.213938451735</v>
       </c>
       <c r="L45" t="n">
-        <v>663.4467832117989</v>
+        <v>663.4467832117987</v>
       </c>
       <c r="M45" t="n">
-        <v>904.9223710838307</v>
+        <v>904.9223710838305</v>
       </c>
       <c r="N45" t="n">
         <v>1155.130504032607</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.831365210281</v>
+        <v>660.5332349096288</v>
       </c>
       <c r="C46" t="n">
-        <v>917.8588020891974</v>
+        <v>488.5606717885448</v>
       </c>
       <c r="D46" t="n">
-        <v>754.5420292159681</v>
+        <v>325.2438989153155</v>
       </c>
       <c r="E46" t="n">
-        <v>588.3338233688216</v>
+        <v>287.1072646330372</v>
       </c>
       <c r="F46" t="n">
-        <v>416.472049143382</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="G46" t="n">
-        <v>251.107482692027</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2454904075976</v>
+        <v>115.2454904075977</v>
       </c>
       <c r="I46" t="n">
         <v>42.3139218351261</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6426112355429</v>
+        <v>83.72089458732202</v>
       </c>
       <c r="K46" t="n">
-        <v>489.7879925407226</v>
+        <v>164.5836667784797</v>
       </c>
       <c r="L46" t="n">
-        <v>974.5130865851158</v>
+        <v>565.3005246308115</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.267891096689</v>
+        <v>680.0553291423848</v>
       </c>
       <c r="N46" t="n">
-        <v>1202.570930806293</v>
+        <v>1191.391291693869</v>
       </c>
       <c r="O46" t="n">
-        <v>1519.07293747027</v>
+        <v>1670.446434848169</v>
       </c>
       <c r="P46" t="n">
-        <v>1915.456417501846</v>
+        <v>2066.829914879746</v>
       </c>
       <c r="Q46" t="n">
         <v>2115.696091756305</v>
       </c>
       <c r="R46" t="n">
-        <v>2108.783173864624</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="S46" t="n">
-        <v>1954.200281281117</v>
+        <v>2115.696091756305</v>
       </c>
       <c r="T46" t="n">
-        <v>1954.200281281117</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.064509322571</v>
+        <v>1876.169739705605</v>
       </c>
       <c r="V46" t="n">
-        <v>1506.340102232605</v>
+        <v>1594.458272313634</v>
       </c>
       <c r="W46" t="n">
-        <v>1506.340102232605</v>
+        <v>1319.605868486147</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.340102232605</v>
+        <v>1077.041971931953</v>
       </c>
       <c r="Y46" t="n">
-        <v>1279.997333922347</v>
+        <v>850.6992036216946</v>
       </c>
     </row>
   </sheetData>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>257.1085781371484</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>150.5878707786574</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>217.3224119322019</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>215.995714243275</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>280.802826464837</v>
+        <v>280.8028264648363</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>67.41623993514821</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>217.322411932202</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>150.5878707786571</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.5878707786576</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>199.5659742286235</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>413.0100789879923</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>217.3224119322019</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>280.8028264648376</v>
+        <v>150.5878707786571</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>217.3224119322019</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>67.41623993514762</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>45.33675393575716</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>348.1454485367495</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K27" t="n">
-        <v>174.2821191063463</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.41623993514763</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>280.802826464837</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>257.1085781371484</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M31" t="n">
         <v>413.0100789879921</v>
       </c>
       <c r="N31" t="n">
-        <v>206.9952687946351</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>257.1085781371484</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>164.294130577696</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>198.2392765396955</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>413.0100789879921</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>4.614291352807825</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1885351120293</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>184.5031345514472</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>231.0585539204504</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>257.1085781371482</v>
+        <v>150.5878707786576</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>413.0100789879921</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>98.36503529026258</v>
+        <v>284.0868352749557</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>150.5878707786573</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>280.802826464837</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>217.3224119322019</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>231.0585539204508</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>150.5878707786573</v>
       </c>
       <c r="K45" t="n">
-        <v>174.2821191063463</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>295.3339973728318</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>217.3224119322019</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>155.5513249816996</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U11" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>273.9698444543128</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.4797040729409</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7109207868414</v>
+        <v>107.6166552492354</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,16 +23500,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>74.36519216350487</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U14" t="n">
         <v>255.6137950796671</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.8010330955182</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20.80044842745892</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.843788712764123</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0370636576713</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.0998011486234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>121.2934054103596</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>41.09677633660294</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>69.45625567009409</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.20225288674683</v>
+        <v>72.20225288674682</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>123.392439814065</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.08392146640853</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.71888335875</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0945428230611</v>
+        <v>210.094542823061</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>116.8428464264027</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>50.76303470541158</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.843788712764137</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>18.041835594807</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120.7500407151956</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -24223,7 +24223,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6137950796671</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>86.13616775423787</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3344142389604</v>
+        <v>70.61311254079936</v>
       </c>
       <c r="V25" t="n">
-        <v>159.7450579211984</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>220.4080081918757</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>210.0945428230611</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6137950796671</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>267.7708591590828</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>108.1455485840107</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.61062306630802</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.20225288674683</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S28" t="n">
         <v>153.0370636576713</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24697,7 +24697,7 @@
         <v>398.3261064128874</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>130.1273352033454</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>301.4496763913977</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5033723615851</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>179.835121745992</v>
       </c>
       <c r="W31" t="n">
-        <v>229.3168421867554</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>354.5840724047671</v>
+        <v>398.3261064128874</v>
       </c>
       <c r="H32" t="n">
         <v>274.71888335875</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.44215023562772</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.0945428230611</v>
@@ -24976,16 +24976,16 @@
         <v>255.6137950796671</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>84.37738505989887</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.6684031522739</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3344142389604</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>213.9635922813536</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3261064128874</v>
       </c>
       <c r="H35" t="n">
-        <v>271.8244922462466</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0945428230611</v>
+        <v>88.39575671125849</v>
       </c>
       <c r="U35" t="n">
         <v>255.6137950796671</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>146.3237799750815</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3901918882988</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S37" t="n">
         <v>153.0370636576713</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>334.9844710541482</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.71888335875</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0945428230611</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>278.8700573641763</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.7712386673255</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.5033723615851</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>6.843788712764123</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>76.85063284389339</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1310885301926</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>204.0707984557658</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3261064128874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.44215023562772</v>
       </c>
       <c r="T41" t="n">
         <v>210.0945428230611</v>
@@ -25687,13 +25687,13 @@
         <v>255.6137950796671</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>354.6212146939474</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>69.74577281571769</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7109207868414</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.20225288674683</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>14.2005659402642</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>408.2723505236837</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.44215023562772</v>
+        <v>1.908436942334205</v>
       </c>
       <c r="T44" t="n">
         <v>210.0945428230611</v>
@@ -25924,16 +25924,16 @@
         <v>255.6137950796671</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>126.7908558492195</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7109207868414</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5033723615851</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.843788712764123</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0370636576713</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1310885301926</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3344142389604</v>
       </c>
       <c r="V46" t="n">
-        <v>112.8471896989846</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368921.3232426335</v>
+        <v>368921.3232426337</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>368921.3232426335</v>
+        <v>368921.3232426337</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368921.3232426335</v>
+        <v>368921.3232426334</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>368921.3232426335</v>
+        <v>368921.3232426334</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>368921.3232426334</v>
+        <v>368921.3232426335</v>
       </c>
     </row>
     <row r="15">
@@ -26322,13 +26322,13 @@
         <v>415984.4828755567</v>
       </c>
       <c r="E2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728004</v>
       </c>
       <c r="F2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728005</v>
       </c>
       <c r="G2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728003</v>
       </c>
       <c r="H2" t="n">
         <v>245697.1970728002</v>
@@ -26343,7 +26343,7 @@
         <v>245697.1970728002</v>
       </c>
       <c r="L2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728003</v>
       </c>
       <c r="M2" t="n">
         <v>245697.1970728002</v>
@@ -26352,10 +26352,10 @@
         <v>245697.1970728002</v>
       </c>
       <c r="O2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728003</v>
       </c>
       <c r="P2" t="n">
-        <v>245697.1970728002</v>
+        <v>245697.1970728004</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>3849.713455507073</v>
@@ -26374,10 +26374,10 @@
         <v>2482.778886659007</v>
       </c>
       <c r="E3" t="n">
-        <v>515158.9699399753</v>
+        <v>515158.9699399755</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>311345.8157815178</v>
       </c>
       <c r="D4" t="n">
-        <v>310560.5041981633</v>
+        <v>310560.5041981634</v>
       </c>
       <c r="E4" t="n">
-        <v>21995.69399462738</v>
+        <v>21995.69399462739</v>
       </c>
       <c r="F4" t="n">
         <v>21995.69399462737</v>
       </c>
       <c r="G4" t="n">
-        <v>21995.69399462738</v>
+        <v>21995.69399462737</v>
       </c>
       <c r="H4" t="n">
-        <v>21995.69399462739</v>
+        <v>21995.69399462736</v>
       </c>
       <c r="I4" t="n">
         <v>21995.69399462738</v>
       </c>
       <c r="J4" t="n">
-        <v>21995.69399462737</v>
+        <v>21995.69399462738</v>
       </c>
       <c r="K4" t="n">
-        <v>21995.69399462737</v>
+        <v>21995.69399462738</v>
       </c>
       <c r="L4" t="n">
-        <v>21995.69399462737</v>
+        <v>21995.69399462738</v>
       </c>
       <c r="M4" t="n">
         <v>21995.69399462738</v>
       </c>
       <c r="N4" t="n">
-        <v>21995.69399462737</v>
+        <v>21995.69399462738</v>
       </c>
       <c r="O4" t="n">
         <v>21995.69399462738</v>
       </c>
       <c r="P4" t="n">
-        <v>21995.69399462738</v>
+        <v>21995.69399462737</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>34614.67030379765</v>
       </c>
       <c r="E5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415995</v>
       </c>
       <c r="F5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415996</v>
       </c>
       <c r="G5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415995</v>
       </c>
       <c r="H5" t="n">
         <v>42839.04122415993</v>
@@ -26508,10 +26508,10 @@
         <v>42839.04122415993</v>
       </c>
       <c r="O5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415994</v>
       </c>
       <c r="P5" t="n">
-        <v>42839.04122415993</v>
+        <v>42839.04122415994</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32222.55682782741</v>
+        <v>32200.87370773598</v>
       </c>
       <c r="C6" t="n">
-        <v>66236.80984063863</v>
+        <v>66215.13010267333</v>
       </c>
       <c r="D6" t="n">
-        <v>68326.52948693675</v>
+        <v>68304.85206820381</v>
       </c>
       <c r="E6" t="n">
-        <v>-334296.5080859624</v>
+        <v>-334905.3830419462</v>
       </c>
       <c r="F6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980292</v>
       </c>
       <c r="G6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980292</v>
       </c>
       <c r="H6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980291</v>
       </c>
       <c r="I6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980291</v>
       </c>
       <c r="J6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980291</v>
       </c>
       <c r="K6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980291</v>
       </c>
       <c r="L6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980292</v>
       </c>
       <c r="M6" t="n">
-        <v>49052.4796415033</v>
+        <v>48443.60468551956</v>
       </c>
       <c r="N6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980291</v>
       </c>
       <c r="O6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980293</v>
       </c>
       <c r="P6" t="n">
-        <v>180862.4618540129</v>
+        <v>180253.5868980293</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>45.27845430264449</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9293866726653</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="F3" t="n">
-        <v>489.9293866726653</v>
+        <v>489.9293866726656</v>
       </c>
       <c r="G3" t="n">
-        <v>489.9293866726653</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="H3" t="n">
-        <v>489.9293866726652</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="I3" t="n">
         <v>489.9293866726653</v>
@@ -26776,10 +26776,10 @@
         <v>489.9293866726653</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9293866726653</v>
+        <v>489.9293866726654</v>
       </c>
       <c r="P3" t="n">
-        <v>489.9293866726653</v>
+        <v>489.9293866726654</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="F4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="G4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="H4" t="n">
         <v>528.9240229390762</v>
@@ -26819,7 +26819,7 @@
         <v>528.9240229390762</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9240229390761</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="M4" t="n">
         <v>528.9240229390762</v>
@@ -26828,10 +26828,10 @@
         <v>528.9240229390762</v>
       </c>
       <c r="O4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390763</v>
       </c>
       <c r="P4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390763</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>2.899040518556454</v>
       </c>
       <c r="E3" t="n">
-        <v>444.6509323700208</v>
+        <v>444.6509323700209</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.9240229390762</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H11" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I11" t="n">
         <v>75.9316690641123</v>
@@ -31770,7 +31770,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M11" t="n">
-        <v>345.8384458998458</v>
+        <v>345.8384458998459</v>
       </c>
       <c r="N11" t="n">
         <v>351.4344735174688</v>
@@ -31782,7 +31782,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338605</v>
       </c>
       <c r="R11" t="n">
         <v>123.7207108967912</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H12" t="n">
         <v>10.17758971182273</v>
@@ -31840,22 +31840,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J12" t="n">
-        <v>99.56197092750836</v>
+        <v>99.56197092750837</v>
       </c>
       <c r="K12" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021727</v>
       </c>
       <c r="M12" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N12" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405886</v>
       </c>
       <c r="O12" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927555</v>
       </c>
       <c r="P12" t="n">
         <v>201.2315626127784</v>
@@ -31864,13 +31864,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R12" t="n">
-        <v>65.42868299753069</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S12" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T12" t="n">
-        <v>4.247595342945087</v>
+        <v>4.247595342945088</v>
       </c>
       <c r="U12" t="n">
         <v>0.06932963018952815</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834792218687406</v>
+        <v>0.8834792218687407</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854933445342081</v>
+        <v>7.854933445342082</v>
       </c>
       <c r="I13" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037996</v>
       </c>
       <c r="J13" t="n">
-        <v>62.46198098611996</v>
+        <v>62.46198098611997</v>
       </c>
       <c r="K13" t="n">
         <v>102.6442223225682</v>
@@ -31928,10 +31928,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M13" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N13" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O13" t="n">
         <v>124.8757721965017</v>
@@ -31940,7 +31940,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.97933738757246</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R13" t="n">
         <v>39.72443846693446</v>
@@ -31949,10 +31949,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T13" t="n">
-        <v>3.774865766166436</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U13" t="n">
-        <v>0.048189775738295</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.969565373558452</v>
+        <v>1.969565373558453</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I14" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411234</v>
       </c>
       <c r="J14" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K14" t="n">
-        <v>250.5361013867862</v>
+        <v>250.5361013867863</v>
       </c>
       <c r="L14" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878259</v>
       </c>
       <c r="M14" t="n">
-        <v>345.8384458998458</v>
+        <v>345.838445899846</v>
       </c>
       <c r="N14" t="n">
-        <v>351.4344735174688</v>
+        <v>351.434473517469</v>
       </c>
       <c r="O14" t="n">
-        <v>331.8496078341469</v>
+        <v>331.8496078341471</v>
       </c>
       <c r="P14" t="n">
-        <v>283.2259626744226</v>
+        <v>283.2259626744227</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338606</v>
       </c>
       <c r="R14" t="n">
-        <v>123.7207108967912</v>
+        <v>123.7207108967913</v>
       </c>
       <c r="S14" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996329</v>
       </c>
       <c r="T14" t="n">
-        <v>8.621772422752128</v>
+        <v>8.621772422752134</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H15" t="n">
-        <v>10.17758971182273</v>
+        <v>10.17758971182274</v>
       </c>
       <c r="I15" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585307</v>
       </c>
       <c r="J15" t="n">
-        <v>99.56197092750836</v>
+        <v>99.56197092750841</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1672663125238</v>
+        <v>170.1672663125239</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021728</v>
       </c>
       <c r="M15" t="n">
-        <v>267.0115157366026</v>
+        <v>267.0115157366027</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405887</v>
       </c>
       <c r="O15" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927556</v>
       </c>
       <c r="P15" t="n">
-        <v>201.2315626127784</v>
+        <v>201.2315626127785</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.5179704690684</v>
+        <v>134.5179704690685</v>
       </c>
       <c r="R15" t="n">
-        <v>65.42868299753069</v>
+        <v>65.42868299753073</v>
       </c>
       <c r="S15" t="n">
-        <v>19.57406559017676</v>
+        <v>19.57406559017677</v>
       </c>
       <c r="T15" t="n">
-        <v>4.247595342945087</v>
+        <v>4.24759534294509</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952817</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8834792218687406</v>
+        <v>0.8834792218687412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.854933445342081</v>
+        <v>7.854933445342086</v>
       </c>
       <c r="I16" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037997</v>
       </c>
       <c r="J16" t="n">
-        <v>62.46198098611996</v>
+        <v>62.46198098612</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6442223225682</v>
+        <v>102.6442223225683</v>
       </c>
       <c r="L16" t="n">
-        <v>131.3492654040126</v>
+        <v>131.3492654040127</v>
       </c>
       <c r="M16" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N16" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O16" t="n">
-        <v>124.8757721965017</v>
+        <v>124.8757721965018</v>
       </c>
       <c r="P16" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.97933738757246</v>
+        <v>73.9793373875725</v>
       </c>
       <c r="R16" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693448</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39663334838523</v>
+        <v>15.39663334838524</v>
       </c>
       <c r="T16" t="n">
-        <v>3.774865766166436</v>
+        <v>3.774865766166438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.048189775738295</v>
+        <v>0.04818977573829503</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I17" t="n">
-        <v>75.9316690641123</v>
+        <v>75.93166906411231</v>
       </c>
       <c r="J17" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K17" t="n">
         <v>250.5361013867862</v>
       </c>
       <c r="L17" t="n">
-        <v>310.8121876878257</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M17" t="n">
-        <v>345.8384458998458</v>
+        <v>345.8384458998459</v>
       </c>
       <c r="N17" t="n">
-        <v>351.4344735174688</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O17" t="n">
-        <v>331.8496078341469</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P17" t="n">
         <v>283.2259626744226</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338605</v>
       </c>
       <c r="R17" t="n">
         <v>123.7207108967912</v>
       </c>
       <c r="S17" t="n">
-        <v>44.88147094996327</v>
+        <v>44.88147094996328</v>
       </c>
       <c r="T17" t="n">
-        <v>8.621772422752128</v>
+        <v>8.62177242275213</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H18" t="n">
         <v>10.17758971182273</v>
       </c>
       <c r="I18" t="n">
-        <v>36.28250646585305</v>
+        <v>36.28250646585306</v>
       </c>
       <c r="J18" t="n">
-        <v>99.56197092750836</v>
+        <v>99.56197092750838</v>
       </c>
       <c r="K18" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L18" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021727</v>
       </c>
       <c r="M18" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N18" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405886</v>
       </c>
       <c r="O18" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927555</v>
       </c>
       <c r="P18" t="n">
         <v>201.2315626127784</v>
@@ -32338,16 +32338,16 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R18" t="n">
-        <v>65.42868299753069</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S18" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T18" t="n">
-        <v>4.247595342945087</v>
+        <v>4.247595342945089</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06932963018952815</v>
+        <v>0.06932963018952816</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8834792218687406</v>
+        <v>0.8834792218687408</v>
       </c>
       <c r="H19" t="n">
-        <v>7.854933445342081</v>
+        <v>7.854933445342083</v>
       </c>
       <c r="I19" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037996</v>
       </c>
       <c r="J19" t="n">
-        <v>62.46198098611996</v>
+        <v>62.46198098611998</v>
       </c>
       <c r="K19" t="n">
         <v>102.6442223225682</v>
@@ -32402,10 +32402,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M19" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N19" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O19" t="n">
         <v>124.8757721965017</v>
@@ -32414,19 +32414,19 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.97933738757246</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R19" t="n">
-        <v>39.72443846693446</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S19" t="n">
         <v>15.39663334838523</v>
       </c>
       <c r="T19" t="n">
-        <v>3.774865766166436</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U19" t="n">
-        <v>0.048189775738295</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I20" t="n">
-        <v>75.93166906411228</v>
+        <v>75.93166906411231</v>
       </c>
       <c r="J20" t="n">
-        <v>167.1643991240568</v>
+        <v>167.1643991240569</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5361013867861</v>
+        <v>250.5361013867862</v>
       </c>
       <c r="L20" t="n">
-        <v>310.8121876878256</v>
+        <v>310.8121876878258</v>
       </c>
       <c r="M20" t="n">
-        <v>345.8384458998457</v>
+        <v>345.8384458998459</v>
       </c>
       <c r="N20" t="n">
-        <v>351.4344735174687</v>
+        <v>351.4344735174689</v>
       </c>
       <c r="O20" t="n">
-        <v>331.8496078341468</v>
+        <v>331.849607834147</v>
       </c>
       <c r="P20" t="n">
-        <v>283.2259626744225</v>
+        <v>283.2259626744226</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338605</v>
       </c>
       <c r="R20" t="n">
         <v>123.7207108967912</v>
       </c>
       <c r="S20" t="n">
-        <v>44.88147094996326</v>
+        <v>44.88147094996328</v>
       </c>
       <c r="T20" t="n">
-        <v>8.621772422752127</v>
+        <v>8.62177242275213</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1575652298846761</v>
+        <v>0.1575652298846762</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H21" t="n">
         <v>10.17758971182273</v>
       </c>
       <c r="I21" t="n">
-        <v>36.28250646585304</v>
+        <v>36.28250646585306</v>
       </c>
       <c r="J21" t="n">
-        <v>99.56197092750833</v>
+        <v>99.56197092750838</v>
       </c>
       <c r="K21" t="n">
-        <v>170.1672663125237</v>
+        <v>170.1672663125238</v>
       </c>
       <c r="L21" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021727</v>
       </c>
       <c r="M21" t="n">
-        <v>267.0115157366025</v>
+        <v>267.0115157366026</v>
       </c>
       <c r="N21" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405886</v>
       </c>
       <c r="O21" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927555</v>
       </c>
       <c r="P21" t="n">
-        <v>201.2315626127783</v>
+        <v>201.2315626127784</v>
       </c>
       <c r="Q21" t="n">
         <v>134.5179704690684</v>
       </c>
       <c r="R21" t="n">
-        <v>65.42868299753067</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S21" t="n">
-        <v>19.57406559017675</v>
+        <v>19.57406559017676</v>
       </c>
       <c r="T21" t="n">
-        <v>4.247595342945086</v>
+        <v>4.247595342945089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06932963018952812</v>
+        <v>0.06932963018952816</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8834792218687404</v>
+        <v>0.8834792218687408</v>
       </c>
       <c r="H22" t="n">
-        <v>7.85493344534208</v>
+        <v>7.854933445342083</v>
       </c>
       <c r="I22" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037996</v>
       </c>
       <c r="J22" t="n">
-        <v>62.46198098611995</v>
+        <v>62.46198098611998</v>
       </c>
       <c r="K22" t="n">
         <v>102.6442223225682</v>
@@ -32639,31 +32639,31 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M22" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N22" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O22" t="n">
-        <v>124.8757721965016</v>
+        <v>124.8757721965017</v>
       </c>
       <c r="P22" t="n">
         <v>106.8527960703793</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.97933738757244</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R22" t="n">
-        <v>39.72443846693444</v>
+        <v>39.72443846693447</v>
       </c>
       <c r="S22" t="n">
         <v>15.39663334838523</v>
       </c>
       <c r="T22" t="n">
-        <v>3.774865766166435</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04818977573829499</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H41" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I41" t="n">
         <v>75.9316690641123</v>
@@ -34140,7 +34140,7 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M41" t="n">
-        <v>345.8384458998458</v>
+        <v>345.8384458998459</v>
       </c>
       <c r="N41" t="n">
         <v>351.4344735174688</v>
@@ -34152,7 +34152,7 @@
         <v>283.2259626744226</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338605</v>
       </c>
       <c r="R41" t="n">
         <v>123.7207108967912</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H42" t="n">
         <v>10.17758971182273</v>
@@ -34210,22 +34210,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J42" t="n">
-        <v>99.56197092750836</v>
+        <v>99.56197092750837</v>
       </c>
       <c r="K42" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L42" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021727</v>
       </c>
       <c r="M42" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N42" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405886</v>
       </c>
       <c r="O42" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927555</v>
       </c>
       <c r="P42" t="n">
         <v>201.2315626127784</v>
@@ -34234,13 +34234,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R42" t="n">
-        <v>65.42868299753069</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S42" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T42" t="n">
-        <v>4.247595342945087</v>
+        <v>4.247595342945088</v>
       </c>
       <c r="U42" t="n">
         <v>0.06932963018952815</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8834792218687406</v>
+        <v>0.8834792218687407</v>
       </c>
       <c r="H43" t="n">
-        <v>7.854933445342081</v>
+        <v>7.854933445342082</v>
       </c>
       <c r="I43" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037996</v>
       </c>
       <c r="J43" t="n">
-        <v>62.46198098611996</v>
+        <v>62.46198098611997</v>
       </c>
       <c r="K43" t="n">
         <v>102.6442223225682</v>
@@ -34298,10 +34298,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M43" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N43" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O43" t="n">
         <v>124.8757721965017</v>
@@ -34310,7 +34310,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.97933738757246</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R43" t="n">
         <v>39.72443846693446</v>
@@ -34319,10 +34319,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T43" t="n">
-        <v>3.774865766166436</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U43" t="n">
-        <v>0.048189775738295</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.969565373558452</v>
       </c>
       <c r="H44" t="n">
-        <v>20.1708113819555</v>
+        <v>20.17081138195551</v>
       </c>
       <c r="I44" t="n">
         <v>75.9316690641123</v>
@@ -34377,19 +34377,19 @@
         <v>310.8121876878257</v>
       </c>
       <c r="M44" t="n">
-        <v>345.8384458998458</v>
+        <v>345.8384458998459</v>
       </c>
       <c r="N44" t="n">
         <v>351.4344735174688</v>
       </c>
       <c r="O44" t="n">
-        <v>331.8496078341469</v>
+        <v>331.8496078341473</v>
       </c>
       <c r="P44" t="n">
         <v>283.2259626744226</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.6909027338604</v>
+        <v>212.6909027338605</v>
       </c>
       <c r="R44" t="n">
         <v>123.7207108967912</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.053810378880827</v>
+        <v>1.053810378880828</v>
       </c>
       <c r="H45" t="n">
         <v>10.17758971182273</v>
@@ -34447,22 +34447,22 @@
         <v>36.28250646585305</v>
       </c>
       <c r="J45" t="n">
-        <v>99.56197092750836</v>
+        <v>99.56197092750837</v>
       </c>
       <c r="K45" t="n">
         <v>170.1672663125238</v>
       </c>
       <c r="L45" t="n">
-        <v>228.8108895021726</v>
+        <v>228.8108895021727</v>
       </c>
       <c r="M45" t="n">
         <v>267.0115157366026</v>
       </c>
       <c r="N45" t="n">
-        <v>274.0785160405885</v>
+        <v>274.0785160405886</v>
       </c>
       <c r="O45" t="n">
-        <v>250.7282965927554</v>
+        <v>250.7282965927555</v>
       </c>
       <c r="P45" t="n">
         <v>201.2315626127784</v>
@@ -34471,13 +34471,13 @@
         <v>134.5179704690684</v>
       </c>
       <c r="R45" t="n">
-        <v>65.42868299753069</v>
+        <v>65.4286829975307</v>
       </c>
       <c r="S45" t="n">
         <v>19.57406559017676</v>
       </c>
       <c r="T45" t="n">
-        <v>4.247595342945087</v>
+        <v>4.247595342945088</v>
       </c>
       <c r="U45" t="n">
         <v>0.06932963018952815</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8834792218687406</v>
+        <v>0.8834792218687407</v>
       </c>
       <c r="H46" t="n">
-        <v>7.854933445342081</v>
+        <v>7.854933445342082</v>
       </c>
       <c r="I46" t="n">
-        <v>26.56862969037995</v>
+        <v>26.56862969037996</v>
       </c>
       <c r="J46" t="n">
-        <v>62.46198098611996</v>
+        <v>62.46198098611997</v>
       </c>
       <c r="K46" t="n">
         <v>102.6442223225682</v>
@@ -34535,10 +34535,10 @@
         <v>131.3492654040126</v>
       </c>
       <c r="M46" t="n">
-        <v>138.4893838425699</v>
+        <v>138.48938384257</v>
       </c>
       <c r="N46" t="n">
-        <v>135.1964158337865</v>
+        <v>135.1964158337866</v>
       </c>
       <c r="O46" t="n">
         <v>124.8757721965017</v>
@@ -34547,7 +34547,7 @@
         <v>106.8527960703793</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.97933738757246</v>
+        <v>73.97933738757247</v>
       </c>
       <c r="R46" t="n">
         <v>39.72443846693446</v>
@@ -34556,10 +34556,10 @@
         <v>15.39663334838523</v>
       </c>
       <c r="T46" t="n">
-        <v>3.774865766166436</v>
+        <v>3.774865766166437</v>
       </c>
       <c r="U46" t="n">
-        <v>0.048189775738295</v>
+        <v>0.04818977573829501</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K11" t="n">
-        <v>214.7715005919768</v>
+        <v>214.7715005919769</v>
       </c>
       <c r="L11" t="n">
         <v>272.5001452552028</v>
@@ -35488,10 +35488,10 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J12" t="n">
-        <v>78.95085659417502</v>
+        <v>78.95085659417504</v>
       </c>
       <c r="K12" t="n">
-        <v>147.7680324791904</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L12" t="n">
         <v>206.2958027879431</v>
@@ -35500,7 +35500,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N12" t="n">
-        <v>509.8440659641952</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O12" t="n">
         <v>227.5564068705332</v>
@@ -35509,10 +35509,10 @@
         <v>179.4607214079497</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.7709321800899</v>
+        <v>262.3588029587473</v>
       </c>
       <c r="R12" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>331.4599811163432</v>
       </c>
       <c r="L13" t="n">
-        <v>489.6213071155487</v>
+        <v>109.4305055083114</v>
       </c>
       <c r="M13" t="n">
-        <v>333.236355883286</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N13" t="n">
-        <v>114.4475148581862</v>
+        <v>330.4432291014612</v>
       </c>
       <c r="O13" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P13" t="n">
         <v>400.387353567249</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014884</v>
       </c>
       <c r="J14" t="n">
-        <v>137.7444396384703</v>
+        <v>137.7444396384704</v>
       </c>
       <c r="K14" t="n">
-        <v>214.7715005919768</v>
+        <v>214.771500591977</v>
       </c>
       <c r="L14" t="n">
-        <v>272.5001452552028</v>
+        <v>272.5001452552029</v>
       </c>
       <c r="M14" t="n">
-        <v>308.407183000414</v>
+        <v>308.4071830004141</v>
       </c>
       <c r="N14" t="n">
-        <v>314.1548506830228</v>
+        <v>314.154850683023</v>
       </c>
       <c r="O14" t="n">
-        <v>294.4586484781228</v>
+        <v>294.458648478123</v>
       </c>
       <c r="P14" t="n">
-        <v>245.6506008641913</v>
+        <v>245.6506008641914</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R14" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199481</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.11011971585305</v>
+        <v>20.11011971585307</v>
       </c>
       <c r="J15" t="n">
-        <v>359.753683059012</v>
+        <v>359.7536830590114</v>
       </c>
       <c r="K15" t="n">
-        <v>147.7680324791904</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L15" t="n">
-        <v>206.2958027879431</v>
+        <v>206.2958027879432</v>
       </c>
       <c r="M15" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N15" t="n">
-        <v>252.7354878270469</v>
+        <v>252.735487827047</v>
       </c>
       <c r="O15" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705334</v>
       </c>
       <c r="P15" t="n">
-        <v>179.4607214079497</v>
+        <v>179.4607214079498</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.7709321800899</v>
+        <v>111.77093218009</v>
       </c>
       <c r="R15" t="n">
-        <v>41.75576360338654</v>
+        <v>41.75576360338658</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5340296973907</v>
+        <v>109.2414649373663</v>
       </c>
       <c r="K16" t="n">
         <v>331.4599811163432</v>
       </c>
       <c r="L16" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M16" t="n">
-        <v>115.9139439510841</v>
+        <v>115.9139439510842</v>
       </c>
       <c r="N16" t="n">
-        <v>331.7699267903881</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O16" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P16" t="n">
         <v>400.387353567249</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.3837665201488</v>
+        <v>41.38376652014881</v>
       </c>
       <c r="J17" t="n">
         <v>137.7444396384703</v>
       </c>
       <c r="K17" t="n">
-        <v>214.7715005919768</v>
+        <v>214.7715005919769</v>
       </c>
       <c r="L17" t="n">
         <v>272.5001452552028</v>
@@ -35895,19 +35895,19 @@
         <v>308.407183000414</v>
       </c>
       <c r="N17" t="n">
-        <v>314.1548506830228</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O17" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P17" t="n">
         <v>245.6506008641913</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R17" t="n">
-        <v>88.68806100199475</v>
+        <v>88.68806100199478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J18" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728322</v>
       </c>
       <c r="K18" t="n">
-        <v>147.7680324791904</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L18" t="n">
         <v>206.2958027879431</v>
       </c>
       <c r="M18" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N18" t="n">
         <v>252.7354878270469</v>
       </c>
       <c r="O18" t="n">
-        <v>227.5564068705332</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P18" t="n">
         <v>179.4607214079497</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.3588029587476</v>
+        <v>111.7709321800899</v>
       </c>
       <c r="R18" t="n">
-        <v>148.2764709618772</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5340296973907</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K19" t="n">
-        <v>331.4599811163432</v>
+        <v>281.2455420984797</v>
       </c>
       <c r="L19" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M19" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390764</v>
       </c>
       <c r="N19" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O19" t="n">
-        <v>319.6989966302791</v>
+        <v>102.3765846980773</v>
       </c>
       <c r="P19" t="n">
-        <v>400.387353567249</v>
+        <v>84.47199541239281</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.38376652014878</v>
+        <v>41.38376652014881</v>
       </c>
       <c r="J20" t="n">
         <v>137.7444396384703</v>
       </c>
       <c r="K20" t="n">
-        <v>214.7715005919767</v>
+        <v>214.7715005919769</v>
       </c>
       <c r="L20" t="n">
-        <v>272.5001452552027</v>
+        <v>272.5001452552028</v>
       </c>
       <c r="M20" t="n">
-        <v>308.4071830004139</v>
+        <v>308.407183000414</v>
       </c>
       <c r="N20" t="n">
-        <v>314.1548506830227</v>
+        <v>314.1548506830229</v>
       </c>
       <c r="O20" t="n">
-        <v>294.4586484781227</v>
+        <v>294.4586484781229</v>
       </c>
       <c r="P20" t="n">
-        <v>245.6506008641912</v>
+        <v>245.6506008641913</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.5662281292624</v>
+        <v>176.5662281292625</v>
       </c>
       <c r="R20" t="n">
-        <v>88.68806100199473</v>
+        <v>88.68806100199478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.11011971585304</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J21" t="n">
-        <v>359.7536830590125</v>
+        <v>229.5387273728322</v>
       </c>
       <c r="K21" t="n">
-        <v>147.7680324791904</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L21" t="n">
-        <v>206.295802787943</v>
+        <v>206.2958027879431</v>
       </c>
       <c r="M21" t="n">
-        <v>243.9147352242746</v>
+        <v>243.9147352242747</v>
       </c>
       <c r="N21" t="n">
-        <v>252.7354878270468</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O21" t="n">
-        <v>227.5564068705331</v>
+        <v>227.5564068705333</v>
       </c>
       <c r="P21" t="n">
-        <v>179.4607214079496</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q21" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R21" t="n">
-        <v>41.75576360338653</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5340296973907</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K22" t="n">
-        <v>331.4599811163431</v>
+        <v>331.4599811163432</v>
       </c>
       <c r="L22" t="n">
-        <v>489.6213071155487</v>
+        <v>489.6213071155488</v>
       </c>
       <c r="M22" t="n">
         <v>115.9139439510841</v>
       </c>
       <c r="N22" t="n">
-        <v>114.4475148581861</v>
+        <v>114.4475148581862</v>
       </c>
       <c r="O22" t="n">
-        <v>319.6989966302791</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P22" t="n">
         <v>400.387353567249</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.2622972267259</v>
+        <v>116.7760145579351</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J24" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K24" t="n">
         <v>147.7680324791904</v>
       </c>
       <c r="L24" t="n">
-        <v>487.0986292527801</v>
+        <v>206.2958027879431</v>
       </c>
       <c r="M24" t="n">
         <v>243.9147352242746</v>
@@ -36460,7 +36460,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R24" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5340296973907</v>
+        <v>87.16197893797525</v>
       </c>
       <c r="K25" t="n">
         <v>81.67956786985621</v>
@@ -36530,7 +36530,7 @@
         <v>516.5009722742268</v>
       </c>
       <c r="O25" t="n">
-        <v>450.5220332348267</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P25" t="n">
         <v>84.4719954123928</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J27" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K27" t="n">
-        <v>322.0501515855367</v>
+        <v>147.7680324791904</v>
       </c>
       <c r="L27" t="n">
         <v>206.2958027879431</v>
@@ -36755,25 +36755,25 @@
         <v>41.82522500221809</v>
       </c>
       <c r="K28" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L28" t="n">
-        <v>489.6213071155487</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M28" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N28" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O28" t="n">
         <v>483.8940839942421</v>
       </c>
       <c r="P28" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q28" t="n">
-        <v>116.7760145579351</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>245.6506008641913</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.5662281292623</v>
+        <v>176.5662281292624</v>
       </c>
       <c r="R29" t="n">
         <v>88.68806100199475</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.80436804354179</v>
+        <v>20.11011971585305</v>
       </c>
       <c r="J30" t="n">
-        <v>78.95085659417502</v>
+        <v>359.753683059012</v>
       </c>
       <c r="K30" t="n">
         <v>147.7680324791904</v>
@@ -36922,7 +36922,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N30" t="n">
-        <v>509.8440659641952</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O30" t="n">
         <v>227.5564068705332</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K31" t="n">
         <v>81.67956786985621</v>
       </c>
       <c r="L31" t="n">
-        <v>489.6213071155487</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M31" t="n">
         <v>528.9240229390762</v>
       </c>
       <c r="N31" t="n">
-        <v>321.4427836528213</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O31" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P31" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q31" t="n">
         <v>49.35977462278751</v>
@@ -37147,7 +37147,7 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J33" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K33" t="n">
         <v>147.7680324791904</v>
@@ -37159,7 +37159,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N33" t="n">
-        <v>509.8440659641952</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O33" t="n">
         <v>227.5564068705332</v>
@@ -37171,7 +37171,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R33" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>41.82522500221809</v>
       </c>
       <c r="K34" t="n">
-        <v>245.9736984475522</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L34" t="n">
-        <v>489.6213071155487</v>
+        <v>307.6697820480069</v>
       </c>
       <c r="M34" t="n">
-        <v>115.9139439510841</v>
+        <v>528.9240229390762</v>
       </c>
       <c r="N34" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O34" t="n">
         <v>483.8940839942421</v>
       </c>
       <c r="P34" t="n">
-        <v>400.387353567249</v>
+        <v>84.4719954123928</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J36" t="n">
-        <v>83.56514794698285</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K36" t="n">
         <v>147.7680324791904</v>
@@ -37396,7 +37396,7 @@
         <v>243.9147352242746</v>
       </c>
       <c r="N36" t="n">
-        <v>528.9240229390762</v>
+        <v>252.7354878270469</v>
       </c>
       <c r="O36" t="n">
         <v>227.5564068705332</v>
@@ -37408,7 +37408,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R36" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5340296973907</v>
+        <v>41.82522500221809</v>
       </c>
       <c r="K37" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985621</v>
       </c>
       <c r="L37" t="n">
-        <v>293.9336400597586</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M37" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N37" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O37" t="n">
-        <v>102.3765846980772</v>
+        <v>483.8940839942421</v>
       </c>
       <c r="P37" t="n">
-        <v>400.387353567249</v>
+        <v>315.5305493328432</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>43.80436804354179</v>
       </c>
       <c r="J39" t="n">
-        <v>336.0594347313233</v>
+        <v>229.5387273728327</v>
       </c>
       <c r="K39" t="n">
         <v>147.7680324791904</v>
@@ -37645,7 +37645,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R39" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618772</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>331.4599811163432</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4305055083114</v>
+        <v>489.6213071155487</v>
       </c>
       <c r="M40" t="n">
-        <v>528.9240229390762</v>
+        <v>115.9139439510841</v>
       </c>
       <c r="N40" t="n">
         <v>516.5009722742268</v>
       </c>
       <c r="O40" t="n">
-        <v>200.7416199883398</v>
+        <v>386.4634199730329</v>
       </c>
       <c r="P40" t="n">
         <v>84.4719954123928</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278751</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K41" t="n">
-        <v>214.7715005919768</v>
+        <v>214.7715005919769</v>
       </c>
       <c r="L41" t="n">
         <v>272.5001452552028</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J42" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728323</v>
       </c>
       <c r="K42" t="n">
-        <v>147.7680324791904</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L42" t="n">
         <v>206.2958027879431</v>
@@ -37876,13 +37876,13 @@
         <v>227.5564068705332</v>
       </c>
       <c r="P42" t="n">
-        <v>460.2635478727867</v>
+        <v>179.4607214079497</v>
       </c>
       <c r="Q42" t="n">
         <v>111.7709321800899</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75576360338654</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5340296973907</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K43" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985623</v>
       </c>
       <c r="L43" t="n">
         <v>489.6213071155487</v>
@@ -37949,16 +37949,16 @@
         <v>115.9139439510841</v>
       </c>
       <c r="N43" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O43" t="n">
-        <v>319.6989966302791</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P43" t="n">
-        <v>400.387353567249</v>
+        <v>315.5305493328436</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>137.7444396384703</v>
       </c>
       <c r="K44" t="n">
-        <v>214.7715005919768</v>
+        <v>214.7715005919769</v>
       </c>
       <c r="L44" t="n">
         <v>272.5001452552028</v>
@@ -38031,7 +38031,7 @@
         <v>314.1548506830228</v>
       </c>
       <c r="O44" t="n">
-        <v>294.4586484781228</v>
+        <v>294.4586484781232</v>
       </c>
       <c r="P44" t="n">
         <v>245.6506008641913</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.11011971585305</v>
+        <v>43.80436804354179</v>
       </c>
       <c r="J45" t="n">
-        <v>78.95085659417502</v>
+        <v>229.5387273728323</v>
       </c>
       <c r="K45" t="n">
-        <v>322.0501515855367</v>
+        <v>147.7680324791905</v>
       </c>
       <c r="L45" t="n">
         <v>206.2958027879431</v>
@@ -38119,7 +38119,7 @@
         <v>111.7709321800899</v>
       </c>
       <c r="R45" t="n">
-        <v>148.2764709618772</v>
+        <v>148.2764709618773</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5340296973907</v>
+        <v>41.8252250022181</v>
       </c>
       <c r="K46" t="n">
-        <v>331.4599811163432</v>
+        <v>81.67956786985623</v>
       </c>
       <c r="L46" t="n">
-        <v>489.6213071155487</v>
+        <v>404.7645028811432</v>
       </c>
       <c r="M46" t="n">
         <v>115.9139439510841</v>
       </c>
       <c r="N46" t="n">
-        <v>114.4475148581862</v>
+        <v>516.5009722742268</v>
       </c>
       <c r="O46" t="n">
-        <v>319.6989966302791</v>
+        <v>483.8940839942422</v>
       </c>
       <c r="P46" t="n">
         <v>400.387353567249</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.2622972267259</v>
+        <v>49.35977462278753</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
